--- a/team_specific_matrix/Toledo_B.xlsx
+++ b/team_specific_matrix/Toledo_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1658291457286432</v>
+        <v>0.1704035874439462</v>
       </c>
       <c r="C2">
-        <v>0.592964824120603</v>
+        <v>0.5874439461883408</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03517587939698492</v>
+        <v>0.04035874439461883</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1155778894472362</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09045226130653267</v>
+        <v>0.09417040358744394</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008547008547008548</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C3">
-        <v>0.0170940170940171</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02564102564102564</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7606837606837606</v>
+        <v>0.7557251908396947</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.188034188034188</v>
+        <v>0.1908396946564886</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8064516129032258</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1935483870967742</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07428571428571429</v>
+        <v>0.0625</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01142857142857143</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05714285714285714</v>
+        <v>0.05288461538461538</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2228571428571429</v>
+        <v>0.2355769230769231</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01142857142857143</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1714285714285714</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="R6">
-        <v>0.07428571428571429</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="S6">
-        <v>0.3771428571428572</v>
+        <v>0.3942307692307692</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0972972972972973</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01081081081081081</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07567567567567568</v>
+        <v>0.06880733944954129</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1351351351351351</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01621621621621622</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2054054054054054</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="R7">
-        <v>0.07027027027027027</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="S7">
-        <v>0.3891891891891892</v>
+        <v>0.3853211009174312</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07079646017699115</v>
+        <v>0.06591337099811675</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01769911504424779</v>
+        <v>0.01506591337099812</v>
       </c>
       <c r="E8">
-        <v>0.004424778761061947</v>
+        <v>0.003766478342749529</v>
       </c>
       <c r="F8">
-        <v>0.05752212389380531</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09955752212389381</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02433628318584071</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2190265486725664</v>
+        <v>0.2259887005649718</v>
       </c>
       <c r="R8">
-        <v>0.08849557522123894</v>
+        <v>0.08662900188323917</v>
       </c>
       <c r="S8">
-        <v>0.418141592920354</v>
+        <v>0.4105461393596987</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0703125</v>
+        <v>0.07096774193548387</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0078125</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1484375</v>
+        <v>0.1483870967741935</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1171875</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0390625</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1796875</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="R9">
-        <v>0.09375</v>
+        <v>0.09032258064516129</v>
       </c>
       <c r="S9">
-        <v>0.34375</v>
+        <v>0.3806451612903226</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09167544783983141</v>
+        <v>0.08894878706199461</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02212855637513172</v>
+        <v>0.0215633423180593</v>
       </c>
       <c r="E10">
-        <v>0.001053740779768177</v>
+        <v>0.0008984725965858042</v>
       </c>
       <c r="F10">
-        <v>0.06322444678609063</v>
+        <v>0.0637915543575921</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0958904109589041</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02107481559536354</v>
+        <v>0.01976639712488769</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2476290832455216</v>
+        <v>0.252470799640611</v>
       </c>
       <c r="R10">
-        <v>0.09799789251844046</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S10">
-        <v>0.3593256059009484</v>
+        <v>0.3629829290206649</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1556420233463035</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07782101167315175</v>
+        <v>0.07590759075907591</v>
       </c>
       <c r="K11">
-        <v>0.1634241245136187</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="L11">
-        <v>0.5992217898832685</v>
+        <v>0.5907590759075908</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003891050583657588</v>
+        <v>0.006600660066006601</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7875</v>
+        <v>0.772972972972973</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1375</v>
+        <v>0.1513513513513514</v>
       </c>
       <c r="K12">
-        <v>0.00625</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="L12">
-        <v>0.03125</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0375</v>
+        <v>0.03783783783783784</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2285714285714286</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08571428571428572</v>
+        <v>0.1041666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01136363636363636</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2102272727272727</v>
+        <v>0.2070707070707071</v>
       </c>
       <c r="I15">
-        <v>0.05113636363636364</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J15">
-        <v>0.3181818181818182</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="K15">
-        <v>0.07386363636363637</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02840909090909091</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3068181818181818</v>
+        <v>0.3080808080808081</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01526717557251908</v>
+        <v>0.01398601398601399</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1679389312977099</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I16">
-        <v>0.1297709923664122</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="J16">
-        <v>0.3587786259541985</v>
+        <v>0.3566433566433567</v>
       </c>
       <c r="K16">
-        <v>0.1297709923664122</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03053435114503817</v>
+        <v>0.04195804195804196</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04580152671755725</v>
+        <v>0.04895104895104895</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1221374045801527</v>
+        <v>0.1188811188811189</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02117647058823529</v>
+        <v>0.01976284584980237</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2117647058823529</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="I17">
-        <v>0.0611764705882353</v>
+        <v>0.07114624505928854</v>
       </c>
       <c r="J17">
-        <v>0.4188235294117647</v>
+        <v>0.4011857707509882</v>
       </c>
       <c r="K17">
-        <v>0.1082352941176471</v>
+        <v>0.1007905138339921</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02352941176470588</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="N17">
-        <v>0.002352941176470588</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="O17">
-        <v>0.05882352941176471</v>
+        <v>0.0533596837944664</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09411764705882353</v>
+        <v>0.1007905138339921</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01785714285714286</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2083333333333333</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="I18">
-        <v>0.08333333333333333</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="J18">
-        <v>0.3869047619047619</v>
+        <v>0.3556701030927835</v>
       </c>
       <c r="K18">
-        <v>0.1011904761904762</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07142857142857142</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1130952380952381</v>
+        <v>0.1082474226804124</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01207243460764587</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2665995975855131</v>
+        <v>0.2565400843881857</v>
       </c>
       <c r="I19">
-        <v>0.06539235412474849</v>
+        <v>0.06413502109704641</v>
       </c>
       <c r="J19">
-        <v>0.3440643863179074</v>
+        <v>0.3493670886075949</v>
       </c>
       <c r="K19">
-        <v>0.113682092555332</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02012072434607646</v>
+        <v>0.02362869198312236</v>
       </c>
       <c r="N19">
-        <v>0.002012072434607646</v>
+        <v>0.002531645569620253</v>
       </c>
       <c r="O19">
-        <v>0.06338028169014084</v>
+        <v>0.06160337552742616</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1126760563380282</v>
+        <v>0.1156118143459916</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Toledo_B.xlsx
+++ b/team_specific_matrix/Toledo_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1704035874439462</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="C2">
-        <v>0.5874439461883408</v>
+        <v>0.5942622950819673</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04035874439461883</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1076233183856502</v>
+        <v>0.110655737704918</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09417040358744394</v>
+        <v>0.09016393442622951</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007633587786259542</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C3">
-        <v>0.02290076335877863</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02290076335877863</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7557251908396947</v>
+        <v>0.7724137931034483</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1908396946564886</v>
+        <v>0.1793103448275862</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7647058823529411</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2058823529411765</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0625</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009615384615384616</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05288461538461538</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2355769230769231</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009615384615384616</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1682692307692308</v>
+        <v>0.1681034482758621</v>
       </c>
       <c r="R6">
-        <v>0.0673076923076923</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S6">
-        <v>0.3942307692307692</v>
+        <v>0.4008620689655172</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0963302752293578</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009174311926605505</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06880733944954129</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1422018348623853</v>
+        <v>0.1375</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01834862385321101</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2018348623853211</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.07798165137614679</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S7">
-        <v>0.3853211009174312</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06591337099811675</v>
+        <v>0.06440677966101695</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01506591337099812</v>
+        <v>0.02033898305084746</v>
       </c>
       <c r="E8">
-        <v>0.003766478342749529</v>
+        <v>0.005084745762711864</v>
       </c>
       <c r="F8">
-        <v>0.06214689265536723</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1073446327683616</v>
+        <v>0.1152542372881356</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02259887005649718</v>
+        <v>0.02203389830508475</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2259887005649718</v>
+        <v>0.2169491525423729</v>
       </c>
       <c r="R8">
-        <v>0.08662900188323917</v>
+        <v>0.09491525423728814</v>
       </c>
       <c r="S8">
-        <v>0.4105461393596987</v>
+        <v>0.4016949152542373</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07096774193548387</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006451612903225806</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1483870967741935</v>
+        <v>0.1511627906976744</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09677419354838709</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03225806451612903</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1741935483870968</v>
+        <v>0.1802325581395349</v>
       </c>
       <c r="R9">
-        <v>0.09032258064516129</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="S9">
-        <v>0.3806451612903226</v>
+        <v>0.3779069767441861</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08894878706199461</v>
+        <v>0.08922829581993569</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0215633423180593</v>
+        <v>0.01929260450160772</v>
       </c>
       <c r="E10">
-        <v>0.0008984725965858042</v>
+        <v>0.0008038585209003215</v>
       </c>
       <c r="F10">
-        <v>0.0637915543575921</v>
+        <v>0.06511254019292605</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09433962264150944</v>
+        <v>0.09485530546623794</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01976639712488769</v>
+        <v>0.02090032154340836</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.252470799640611</v>
+        <v>0.2564308681672026</v>
       </c>
       <c r="R10">
-        <v>0.09523809523809523</v>
+        <v>0.08842443729903537</v>
       </c>
       <c r="S10">
-        <v>0.3629829290206649</v>
+        <v>0.364951768488746</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1584158415841584</v>
+        <v>0.155688622754491</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07590759075907591</v>
+        <v>0.0718562874251497</v>
       </c>
       <c r="K11">
-        <v>0.1683168316831683</v>
+        <v>0.1616766467065868</v>
       </c>
       <c r="L11">
-        <v>0.5907590759075908</v>
+        <v>0.6017964071856288</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006600660066006601</v>
+        <v>0.008982035928143712</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.772972972972973</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1513513513513514</v>
+        <v>0.1497584541062802</v>
       </c>
       <c r="K12">
-        <v>0.01081081081081081</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="L12">
-        <v>0.02702702702702703</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03783783783783784</v>
+        <v>0.03381642512077294</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2291666666666667</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1041666666666667</v>
+        <v>0.09803921568627451</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0101010101010101</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2070707070707071</v>
+        <v>0.2062780269058296</v>
       </c>
       <c r="I15">
-        <v>0.06060606060606061</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="J15">
-        <v>0.3131313131313131</v>
+        <v>0.3183856502242152</v>
       </c>
       <c r="K15">
-        <v>0.0707070707070707</v>
+        <v>0.06726457399103139</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004484304932735426</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0303030303030303</v>
+        <v>0.02690582959641256</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3080808080808081</v>
+        <v>0.304932735426009</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01398601398601399</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1818181818181818</v>
+        <v>0.191358024691358</v>
       </c>
       <c r="I16">
-        <v>0.1188811188811189</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J16">
-        <v>0.3566433566433567</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="K16">
-        <v>0.1188811188811189</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04195804195804196</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04895104895104895</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1188811188811189</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01976284584980237</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2272727272727273</v>
+        <v>0.2336283185840708</v>
       </c>
       <c r="I17">
-        <v>0.07114624505928854</v>
+        <v>0.06902654867256637</v>
       </c>
       <c r="J17">
-        <v>0.4011857707509882</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
-        <v>0.1007905138339921</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02371541501976284</v>
+        <v>0.02123893805309734</v>
       </c>
       <c r="N17">
-        <v>0.001976284584980237</v>
+        <v>0.001769911504424779</v>
       </c>
       <c r="O17">
-        <v>0.0533596837944664</v>
+        <v>0.06017699115044248</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1007905138339921</v>
+        <v>0.09911504424778761</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02061855670103093</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2216494845360825</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="I18">
-        <v>0.08762886597938144</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="J18">
-        <v>0.3556701030927835</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="K18">
-        <v>0.1134020618556701</v>
+        <v>0.1173708920187793</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02061855670103093</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07216494845360824</v>
+        <v>0.06572769953051644</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1082474226804124</v>
+        <v>0.107981220657277</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01265822784810127</v>
+        <v>0.0129081245254366</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2565400843881857</v>
+        <v>0.2528473804100228</v>
       </c>
       <c r="I19">
-        <v>0.06413502109704641</v>
+        <v>0.06605922551252848</v>
       </c>
       <c r="J19">
-        <v>0.3493670886075949</v>
+        <v>0.3454821564160972</v>
       </c>
       <c r="K19">
-        <v>0.1139240506329114</v>
+        <v>0.1161731207289294</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02362869198312236</v>
+        <v>0.02277904328018223</v>
       </c>
       <c r="N19">
-        <v>0.002531645569620253</v>
+        <v>0.002277904328018223</v>
       </c>
       <c r="O19">
-        <v>0.06160337552742616</v>
+        <v>0.06302201974183751</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1156118143459916</v>
+        <v>0.1184510250569476</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Toledo_B.xlsx
+++ b/team_specific_matrix/Toledo_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1639344262295082</v>
+        <v>0.171003717472119</v>
       </c>
       <c r="C2">
-        <v>0.5942622950819673</v>
+        <v>0.5836431226765799</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04098360655737705</v>
+        <v>0.03717472118959108</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.110655737704918</v>
+        <v>0.1152416356877323</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09016393442622951</v>
+        <v>0.09293680297397769</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006896551724137931</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C3">
-        <v>0.02068965517241379</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02068965517241379</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7724137931034483</v>
+        <v>0.7628205128205128</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1793103448275862</v>
+        <v>0.1858974358974359</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7804878048780488</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1951219512195122</v>
+        <v>0.186046511627907</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05603448275862069</v>
+        <v>0.05306122448979592</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008620689655172414</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04741379310344827</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2413793103448276</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008620689655172414</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1681034482758621</v>
+        <v>0.163265306122449</v>
       </c>
       <c r="R6">
-        <v>0.06896551724137931</v>
+        <v>0.06938775510204082</v>
       </c>
       <c r="S6">
-        <v>0.4008620689655172</v>
+        <v>0.3959183673469387</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09583333333333334</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01666666666666667</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07083333333333333</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1375</v>
+        <v>0.1417624521072797</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02083333333333333</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.2030651340996169</v>
       </c>
       <c r="R7">
-        <v>0.08333333333333333</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="S7">
-        <v>0.375</v>
+        <v>0.3793103448275862</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06440677966101695</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02033898305084746</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E8">
-        <v>0.005084745762711864</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F8">
-        <v>0.05932203389830509</v>
+        <v>0.05929487179487179</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1152542372881356</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02203389830508475</v>
+        <v>0.02243589743589744</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2169491525423729</v>
+        <v>0.2131410256410256</v>
       </c>
       <c r="R8">
-        <v>0.09491525423728814</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="S8">
-        <v>0.4016949152542373</v>
+        <v>0.4022435897435898</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06976744186046512</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01162790697674419</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1511627906976744</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09302325581395349</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03488372093023256</v>
+        <v>0.03141361256544502</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1802325581395349</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="R9">
-        <v>0.08139534883720931</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="S9">
-        <v>0.3779069767441861</v>
+        <v>0.387434554973822</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08922829581993569</v>
+        <v>0.09234234234234234</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01929260450160772</v>
+        <v>0.01876876876876877</v>
       </c>
       <c r="E10">
-        <v>0.0008038585209003215</v>
+        <v>0.001501501501501501</v>
       </c>
       <c r="F10">
-        <v>0.06511254019292605</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09485530546623794</v>
+        <v>0.09684684684684684</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02090032154340836</v>
+        <v>0.02102102102102102</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2564308681672026</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>0.08842443729903537</v>
+        <v>0.08558558558558559</v>
       </c>
       <c r="S10">
-        <v>0.364951768488746</v>
+        <v>0.3708708708708709</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.155688622754491</v>
+        <v>0.15406162464986</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0718562874251497</v>
+        <v>0.07002801120448179</v>
       </c>
       <c r="K11">
-        <v>0.1616766467065868</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="L11">
-        <v>0.6017964071856288</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008982035928143712</v>
+        <v>0.008403361344537815</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7826086956521739</v>
+        <v>0.7831858407079646</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1497584541062802</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="K12">
-        <v>0.00966183574879227</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="L12">
-        <v>0.02415458937198068</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03381642512077294</v>
+        <v>0.03539823008849557</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6470588235294118</v>
+        <v>0.6379310344827587</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2549019607843137</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09803921568627451</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01345291479820628</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2062780269058296</v>
+        <v>0.1983122362869198</v>
       </c>
       <c r="I15">
-        <v>0.05829596412556054</v>
+        <v>0.05485232067510549</v>
       </c>
       <c r="J15">
-        <v>0.3183856502242152</v>
+        <v>0.3291139240506329</v>
       </c>
       <c r="K15">
-        <v>0.06726457399103139</v>
+        <v>0.06329113924050633</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004484304932735426</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02690582959641256</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.304932735426009</v>
+        <v>0.29957805907173</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01234567901234568</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.191358024691358</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="I16">
-        <v>0.1111111111111111</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="J16">
-        <v>0.3703703703703703</v>
+        <v>0.3657142857142857</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.12</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03703703703703703</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04320987654320987</v>
+        <v>0.04</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1234567901234568</v>
+        <v>0.1257142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01769911504424779</v>
+        <v>0.01692047377326565</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2336283185840708</v>
+        <v>0.2301184433164128</v>
       </c>
       <c r="I17">
-        <v>0.06902654867256637</v>
+        <v>0.07106598984771574</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3976311336717428</v>
       </c>
       <c r="K17">
-        <v>0.09734513274336283</v>
+        <v>0.1032148900169205</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02123893805309734</v>
+        <v>0.02199661590524535</v>
       </c>
       <c r="N17">
-        <v>0.001769911504424779</v>
+        <v>0.001692047377326565</v>
       </c>
       <c r="O17">
-        <v>0.06017699115044248</v>
+        <v>0.05752961082910321</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09911504424778761</v>
+        <v>0.09983079526226735</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0187793427230047</v>
+        <v>0.02212389380530973</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2206572769953052</v>
+        <v>0.2168141592920354</v>
       </c>
       <c r="I18">
-        <v>0.08450704225352113</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="J18">
-        <v>0.3661971830985916</v>
+        <v>0.3716814159292036</v>
       </c>
       <c r="K18">
-        <v>0.1173708920187793</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0187793427230047</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06572769953051644</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.107981220657277</v>
+        <v>0.1017699115044248</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0129081245254366</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2528473804100228</v>
+        <v>0.2535310734463277</v>
       </c>
       <c r="I19">
-        <v>0.06605922551252848</v>
+        <v>0.06991525423728813</v>
       </c>
       <c r="J19">
-        <v>0.3454821564160972</v>
+        <v>0.3439265536723164</v>
       </c>
       <c r="K19">
-        <v>0.1161731207289294</v>
+        <v>0.1137005649717514</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02277904328018223</v>
+        <v>0.02471751412429379</v>
       </c>
       <c r="N19">
-        <v>0.002277904328018223</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="O19">
-        <v>0.06302201974183751</v>
+        <v>0.06285310734463277</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1184510250569476</v>
+        <v>0.115819209039548</v>
       </c>
     </row>
   </sheetData>
